--- a/因子类型.xlsx
+++ b/因子类型.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="119">
   <si>
     <t>大类因子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -904,6 +904,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -918,6 +921,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -932,6 +938,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -946,6 +955,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -960,6 +972,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -974,6 +989,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -988,6 +1006,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1019,6 +1040,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1033,6 +1057,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1047,6 +1074,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -1078,6 +1108,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
@@ -1092,6 +1125,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1106,6 +1142,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
@@ -1120,6 +1159,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1134,6 +1176,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1148,6 +1193,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>58</v>
       </c>
@@ -1159,6 +1207,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>59</v>
       </c>
@@ -1170,6 +1221,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>62</v>
       </c>
@@ -1184,6 +1238,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>63</v>
       </c>
@@ -1198,6 +1255,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B24" t="s">
         <v>66</v>
       </c>
@@ -1229,6 +1289,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>75</v>
       </c>
@@ -1243,6 +1306,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>76</v>
       </c>
@@ -1285,6 +1351,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>88</v>
       </c>
@@ -1299,19 +1368,31 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>93</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -1324,13 +1405,22 @@
       <c r="C33" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>98</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -1385,11 +1475,17 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>111</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
